--- a/dados.xlsx
+++ b/dados.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Linguagem</t>
   </si>
   <si>
-    <t xml:space="preserve">Camila Vincensi</t>
+    <t xml:space="preserve">Fulano 1</t>
   </si>
   <si>
     <t xml:space="preserve">Frontend</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Python</t>
   </si>
   <si>
-    <t xml:space="preserve">Mateus Dias Camacho </t>
+    <t xml:space="preserve">Fulano 2</t>
   </si>
   <si>
     <t xml:space="preserve">Tester</t>
@@ -58,25 +58,25 @@
     <t xml:space="preserve">Java</t>
   </si>
   <si>
-    <t xml:space="preserve">Bruno José Borges</t>
+    <t xml:space="preserve">Fulano 3</t>
   </si>
   <si>
     <t xml:space="preserve">senior</t>
   </si>
   <si>
-    <t xml:space="preserve">Marlon Simon</t>
+    <t xml:space="preserve">Fulano 4</t>
   </si>
   <si>
     <t xml:space="preserve">C#</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandra da Silveira</t>
+    <t xml:space="preserve">Fulano 5</t>
   </si>
   <si>
     <t xml:space="preserve">Javascript</t>
   </si>
   <si>
-    <t xml:space="preserve">Arthur Botelho Konzen</t>
+    <t xml:space="preserve">Fulano 6</t>
   </si>
   <si>
     <t xml:space="preserve">Backend</t>
@@ -85,115 +85,115 @@
     <t xml:space="preserve">PHP</t>
   </si>
   <si>
-    <t xml:space="preserve">Ângelo Hank</t>
+    <t xml:space="preserve">Fulano 7</t>
   </si>
   <si>
     <t xml:space="preserve">Fullstack</t>
   </si>
   <si>
-    <t xml:space="preserve">Guilherme Luiz Pissaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Gustavo Venassi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto junior Portaluppi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre Prunzel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romildo corsi neto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">davi takayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Rodrigues Martins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriella Marreto Rodrigues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milena Risso Zanotelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Júlio César Tomazoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Ferris Marchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe da Silva Marcos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Coelho Pitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson Pereira Brzezinski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleiton Horalino Soare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Alecio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Vinícius Raffaelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Vinicius da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natã Michel Cavejon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruna Martins</t>
+    <t xml:space="preserve">Fulano 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 27</t>
   </si>
   <si>
     <t xml:space="preserve">Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitor Gaginski Souza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Marcello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Daniel Guancino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andre ramos vidal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvaro Eduardo Menegon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayne C Fogassa da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnold Zago dos Reis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carla Ribeiro Mezzomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Parise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Henrique Kophal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Júlio Tetsuji Pinheiro So</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel de Oliveira Rêgo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luiz Gustavo Porotski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William Luiz Gabriel Pagani</t>
+    <t xml:space="preserve">Fulano 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulano 41</t>
   </si>
 </sst>
 </file>
@@ -313,11 +313,11 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -884,7 +884,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
